--- a/biology/Médecine/Militaire_infirmier_et_technicien_des_hôpitaux_des_armées/Militaire_infirmier_et_technicien_des_hôpitaux_des_armées.xlsx
+++ b/biology/Médecine/Militaire_infirmier_et_technicien_des_hôpitaux_des_armées/Militaire_infirmier_et_technicien_des_hôpitaux_des_armées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Militaire_infirmier_et_technicien_des_h%C3%B4pitaux_des_arm%C3%A9es</t>
+          <t>Militaire_infirmier_et_technicien_des_hôpitaux_des_armées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Militaire infirmier et technicien des hôpitaux des armées (MITHA) est un statut spécifique militaire français du service de santé des armées (SSA) du ministère de la Défense[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Militaire infirmier et technicien des hôpitaux des armées (MITHA) est un statut spécifique militaire français du service de santé des armées (SSA) du ministère de la Défense.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Militaire_infirmier_et_technicien_des_h%C3%B4pitaux_des_arm%C3%A9es</t>
+          <t>Militaire_infirmier_et_technicien_des_hôpitaux_des_armées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les militaires infirmiers et techniciens des hôpitaux des armées sont des personnels médicaux, paramédicaux et périmédicaux dont le statut est calqué sur celui de la fonction publique hospitalière mais ressortit simultanément au statut général des militaires. La hiérarchie des militaires infirmiers et techniciens des hôpitaux des armées ne comporte pas d’assimilation avec la hiérarchie militaire générale[1] mais ils portent des galons d'apparence de la hiérarchie militaire générale afin de pouvoir reconnaître leur positionnement pour l'application des obligations, droits et prérogatives des autres militaires[2].
-Les MITHA sont constitués en 13 corps[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les militaires infirmiers et techniciens des hôpitaux des armées sont des personnels médicaux, paramédicaux et périmédicaux dont le statut est calqué sur celui de la fonction publique hospitalière mais ressortit simultanément au statut général des militaires. La hiérarchie des militaires infirmiers et techniciens des hôpitaux des armées ne comporte pas d’assimilation avec la hiérarchie militaire générale mais ils portent des galons d'apparence de la hiérarchie militaire générale afin de pouvoir reconnaître leur positionnement pour l'application des obligations, droits et prérogatives des autres militaires.
+Les MITHA sont constitués en 13 corps :
 corps des psychologues ;
 corps des directeurs des soins ;
 corps des cadres de santé paramédicaux ;
@@ -548,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Militaire_infirmier_et_technicien_des_h%C3%B4pitaux_des_arm%C3%A9es</t>
+          <t>Militaire_infirmier_et_technicien_des_hôpitaux_des_armées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -566,9 +580,11 @@
           <t>Grades</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ils portent des galons or, passepoilés d'un drap de distinction de couleur rouge amarante à partir du grade d'adjudant[3]. Leur attribut est un bâton d'Asclépios soutenu par une demi-couronne de chêne et de laurier, or, sur les fourreaux bleu marine utilisés actuellement par tout le service de santé. Ils portaient, jusqu'en 2005[4], des galons bleus avec un liseré or ou argent, selon leur grade. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils portent des galons or, passepoilés d'un drap de distinction de couleur rouge amarante à partir du grade d'adjudant. Leur attribut est un bâton d'Asclépios soutenu par une demi-couronne de chêne et de laurier, or, sur les fourreaux bleu marine utilisés actuellement par tout le service de santé. Ils portaient, jusqu'en 2005, des galons bleus avec un liseré or ou argent, selon leur grade. 
 </t>
         </is>
       </c>
